--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Project team</t>
   </si>
   <si>
     <t>Contact</t>
@@ -354,7 +357,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -384,50 +389,52 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -449,122 +456,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,19 +51,19 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2021-03-17T00:00:00+00:00</t>
+    <t>2023-09-13T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Project team</t>
+    <t>HL7 Norway</t>
   </si>
   <si>
     <t>Contact</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes representing body site for blood pressure</t>
+    <t>Include codes representing body site for blood pressure as used in HL7 Norway no-domain profiles, codes included from SNOMED CT valueset</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,88 +96,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>368209003</t>
-  </si>
-  <si>
-    <t>Overarm, høyre</t>
-  </si>
-  <si>
-    <t>368208006</t>
-  </si>
-  <si>
-    <t>Overarm, venstre</t>
-  </si>
-  <si>
-    <t>11207009</t>
-  </si>
-  <si>
-    <t>Lår, høyre</t>
-  </si>
-  <si>
-    <t>61396006</t>
-  </si>
-  <si>
-    <t>Lår, venstre</t>
-  </si>
-  <si>
-    <t>9736006</t>
-  </si>
-  <si>
-    <t>Håndledd, høyre</t>
-  </si>
-  <si>
-    <t>5951000</t>
-  </si>
-  <si>
-    <t>Håndledd, venstre</t>
-  </si>
-  <si>
-    <t>6685009</t>
-  </si>
-  <si>
-    <t>Ankel, høyre</t>
-  </si>
-  <si>
-    <t>51636004</t>
-  </si>
-  <si>
-    <t>Ankel, venstre</t>
-  </si>
-  <si>
-    <t>7569003</t>
-  </si>
-  <si>
-    <t>Finger</t>
-  </si>
-  <si>
-    <t>29707007</t>
-  </si>
-  <si>
-    <t>Tå</t>
-  </si>
-  <si>
-    <t>2402003</t>
-  </si>
-  <si>
-    <t>Fotrygg</t>
-  </si>
-  <si>
-    <t>51114001</t>
-  </si>
-  <si>
-    <t>Intra-arterielt</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>http://und-sandbox.norwayeast.cloudapp.azure.com:8080/fhir/ValueSet/44ebee90-2e04-42bd-a990-584fd954744f</t>
   </si>
 </sst>
 </file>
@@ -299,10 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -444,7 +366,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,120 +380,10 @@
       <c r="A1" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -99,7 +99,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://und-sandbox.norwayeast.cloudapp.azure.com:8080/fhir/ValueSet/44ebee90-2e04-42bd-a990-584fd954744f</t>
+    <t>http://snomed.info/sct/51000202101/version/20230415/ecl/%5E198541000202101%7B%7B%20M%20mapTarget%20%3D%22Blodtrykk::M%C3%A5lested::%22%20%7D%7D/syntaxVersion/2.0</t>
   </si>
 </sst>
 </file>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T00:00:00+00:00</t>
+    <t>2024-01-09T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,10 +96,88 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct/51000202101/version/20230415/ecl/%5E198541000202101%7B%7B%20M%20mapTarget%20%3D%22Blodtrykk::M%C3%A5lested::%22%20%7D%7D/syntaxVersion/2.0</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>368209003</t>
+  </si>
+  <si>
+    <t>Overarm, høyre</t>
+  </si>
+  <si>
+    <t>368208006</t>
+  </si>
+  <si>
+    <t>Overarm, venstre</t>
+  </si>
+  <si>
+    <t>11207009</t>
+  </si>
+  <si>
+    <t>Lår, høyre</t>
+  </si>
+  <si>
+    <t>61396006</t>
+  </si>
+  <si>
+    <t>Lår, venstre</t>
+  </si>
+  <si>
+    <t>9736006</t>
+  </si>
+  <si>
+    <t>Håndledd, høyre</t>
+  </si>
+  <si>
+    <t>5951000</t>
+  </si>
+  <si>
+    <t>Håndledd, venstre</t>
+  </si>
+  <si>
+    <t>6685009</t>
+  </si>
+  <si>
+    <t>Ankel, høyre</t>
+  </si>
+  <si>
+    <t>51636004</t>
+  </si>
+  <si>
+    <t>Ankel, venstre</t>
+  </si>
+  <si>
+    <t>7569003</t>
+  </si>
+  <si>
+    <t>Finger</t>
+  </si>
+  <si>
+    <t>29707007</t>
+  </si>
+  <si>
+    <t>Tå</t>
+  </si>
+  <si>
+    <t>2402003</t>
+  </si>
+  <si>
+    <t>Fotrygg</t>
+  </si>
+  <si>
+    <t>51114001</t>
+  </si>
+  <si>
+    <t>Intra-arterielt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -366,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -380,10 +458,120 @@
       <c r="A1" t="s" s="1">
         <v>27</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.3</t>
+    <t>0.7.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,13 +51,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T00:00:00+00:00</t>
+    <t>2021-03-17T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Include codes representing body site for blood pressure as used in HL7 Norway no-domain profiles, codes included from SNOMED CT valueset</t>
+    <t>Codes representing body site for blood pressure</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodySite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This resource includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these specifications must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/get-snomed-ct or info@snomed.org</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -427,14 +430,16 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +461,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -464,114 +469,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
